--- a/biology/Zoologie/Dacus/Dacus.xlsx
+++ b/biology/Zoologie/Dacus/Dacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dacus est un genre d’insectes diptères de la famille des Tephritidae contenant de nombreuses espèces réparties en sous-genres.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 févr. 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 févr. 2015) :
 Dacus (Callantra) Walker, 1860
 Dacus (Dacus) Fabricius, 1805
 Dacus (Didacus) Collart, 1935
@@ -549,9 +563,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (30 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (30 décembre 2023) :
 Dacus abbabae Munro, 1933
 Dacus abditus (Munro, 1984)
 Dacus abruptus White &amp; Goodger, 2009
@@ -898,10 +914,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dacus Fabricius, 1805[2].
-Dacus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Dacus Fabricius, 1805.
+Dacus a pour synonymes :
 Ancylodacus Munro, 1984
 Desmodacus Munro, 1984
 Dorylodacus Munro, 1984
